--- a/학습자료/단답형/객관식_국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_한자어2글자_번역.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>內科
-1. 간만(Full)
-2. 내과
-3. 통제(control)</t>
+1. 내과
+2. 행간
+3. 서막(prelude)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, 내과</t>
+          <t>1, 내과</t>
         </is>
       </c>
     </row>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>看護
-1. 경로(Passage)
-2. 단서(Ductive)
-3. 간호(Nurse)</t>
+1. 간호(Nurse)
+2. 유리(favorable)
+3. 경위</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3, 간호(Nurse)</t>
+          <t>1, 간호(Nurse)</t>
         </is>
       </c>
     </row>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>入院
-1. 전선(Front)
-2. 입원(hospitalization)
-3. 단서(Ductive)</t>
+1. 세무(Tax)
+2. 노선(route)
+3. 입원(hospitalization)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2, 입원(hospitalization)</t>
+          <t>3, 입원(hospitalization)</t>
         </is>
       </c>
     </row>
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>報告
-1. 기반(basis)
-2. 보고(Report)
-3. 약간(Slightly)</t>
+1. 보고(Report)
+2. 첩경
+3. 화합(Harmony)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2, 보고(Report)</t>
+          <t>1, 보고(Report)</t>
         </is>
       </c>
     </row>
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>曲折
-1. 참석
-2. 초유(First)
-3. 곡절(tortuous)</t>
+1. 곡절(tortuous)
+2. 비탄(grief)
+3. 세력(power)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3, 곡절(tortuous)</t>
+          <t>1, 곡절(tortuous)</t>
         </is>
       </c>
     </row>
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>初有
-1. 세무(Tax)
-2. 초유(First)
-3. 간만(Full)</t>
+1. 알현(audience)
+2. 통제(control)
+3. 초유(First)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2, 초유(First)</t>
+          <t>3, 초유(First)</t>
         </is>
       </c>
     </row>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>序幕
-1. 간만(Full)
-2. 서막(prelude)
-3. 경위</t>
+1. 투고(Posting)
+2. 비탄(grief)
+3. 서막(prelude)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2, 서막(prelude)</t>
+          <t>3, 서막(prelude)</t>
         </is>
       </c>
     </row>
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>敎養
-1. 참가(join)
-2. 교양(Cure)
-3. 화합(Harmony)</t>
+1. 교양(Cure)
+2. 간호(Nurse)
+3. 투고(Posting)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2, 교양(Cure)</t>
+          <t>1, 교양(Cure)</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>理論
-1. 유리(favorable)
-2. 이론(theory)
-3. 알현(audience)</t>
+1. 이론(theory)
+2. 행간
+3. 간섭</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2, 이론(theory)</t>
+          <t>1, 이론(theory)</t>
         </is>
       </c>
     </row>
@@ -584,8 +584,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>儒敎
-1. 투수(pitcher)
-2. 참여(participate)
+1. 시선(Vision)
+2. 알현(audience)
 3. 유교(Conf)</t>
         </is>
       </c>
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>學問
-1. 참석
-2. 곡절(tortuous)
-3. 학문(knowledge)</t>
+1. 학문(knowledge)
+2. 유언(will)
+3. 화목(harmony)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3, 학문(knowledge)</t>
+          <t>1, 학문(knowledge)</t>
         </is>
       </c>
     </row>
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>受容
-1. 유리(favorable)
-2. 약간(Slightly)
-3. 수용(Acceptance)</t>
+1. 직경(diameter)
+2. 수용(Acceptance)
+3. 노선(route)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3, 수용(Acceptance)</t>
+          <t>2, 수용(Acceptance)</t>
         </is>
       </c>
     </row>
@@ -629,8 +629,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>貴中
-1. 견습(Appraise)
-2. 기반(basis)
+1. 근절(eradication)
+2. 단서(Ductive)
 3. 귀중(You)</t>
         </is>
       </c>
@@ -644,14 +644,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>貴賤
-1. 간만(Full)
-2. 화해(reconciliation)
-3. 귀천(Expensive)</t>
+1. 권세(Power)
+2. 귀천(Expensive)
+3. 이론(theory)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3, 귀천(Expensive)</t>
+          <t>2, 귀천(Expensive)</t>
         </is>
       </c>
     </row>
@@ -659,9 +659,9 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>遺産
-1. 화합(Harmony)
+1. 알현(audience)
 2. 유산(heritage)
-3. 수용(Acceptance)</t>
+3. 참견(See)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -674,14 +674,14 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>遺言
-1. 유언(will)
-2. 참여(participate)
-3. 이론(theory)</t>
+1. 간만(Full)
+2. 유언(will)
+3. 경위</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1, 유언(will)</t>
+          <t>2, 유언(will)</t>
         </is>
       </c>
     </row>
@@ -689,14 +689,14 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>遺失
-1. 유실(Lose)
-2. 이론(theory)
-3. 직경(diameter)</t>
+1. 포기(abandon)
+2. 경제(economy)
+3. 유실(Lose)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1, 유실(Lose)</t>
+          <t>3, 유실(Lose)</t>
         </is>
       </c>
     </row>
@@ -704,9 +704,9 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>遺棄
-1. 귀중(You)
+1. 투기(Dumping)
 2. 유기(Abandon)
-3. 초유(First)</t>
+3. 단서(Ductive)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -719,14 +719,14 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>投稿
-1. 투수(pitcher)
-2. 한문(Chinese)
-3. 투고(Posting)</t>
+1. 투고(Posting)
+2. 간섭
+3. 비탄(grief)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3, 투고(Posting)</t>
+          <t>1, 투고(Posting)</t>
         </is>
       </c>
     </row>
@@ -734,8 +734,8 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>投手
-1. 비탄(grief)
-2. 유리(favorable)
+1. 유리(favorable)
+2. 견습(Appraise)
 3. 투수(pitcher)</t>
         </is>
       </c>
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>投棄
-1. 유언(will)
-2. 투기(Dumping)
-3. 곡절(tortuous)</t>
+1. 곡절(tortuous)
+2. 전선(Front)
+3. 투기(Dumping)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2, 투기(Dumping)</t>
+          <t>3, 투기(Dumping)</t>
         </is>
       </c>
     </row>
@@ -764,14 +764,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>抛棄
-1. 포기(abandon)
-2. 이론(theory)
-3. 첩경</t>
+1. 시선(Vision)
+2. 경로(Passage)
+3. 포기(abandon)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1, 포기(abandon)</t>
+          <t>3, 포기(abandon)</t>
         </is>
       </c>
     </row>
@@ -779,14 +779,14 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>路線
-1. 노선(route)
-2. 초유(First)
-3. 경로(Passage)</t>
+1. 학문(knowledge)
+2. 첩경
+3. 노선(route)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1, 노선(route)</t>
+          <t>3, 노선(route)</t>
         </is>
       </c>
     </row>
@@ -794,14 +794,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>戰線
-1. 전선(Front)
-2. 참견(See)
-3. 화해(reconciliation)</t>
+1. 유기(Abandon)
+2. 세금(Tax)
+3. 전선(Front)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1, 전선(Front)</t>
+          <t>3, 전선(Front)</t>
         </is>
       </c>
     </row>
@@ -809,14 +809,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>視線
-1. 세력(power)
-2. 첩경
-3. 시선(Vision)</t>
+1. 첩경
+2. 시선(Vision)
+3. 기반(basis)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3, 시선(Vision)</t>
+          <t>2, 시선(Vision)</t>
         </is>
       </c>
     </row>
@@ -825,13 +825,13 @@
         <is>
           <t>根絶
 1. 초유(First)
-2. 근절(eradication)
-3. 서막(prelude)</t>
+2. 입원(hospitalization)
+3. 근절(eradication)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2, 근절(eradication)</t>
+          <t>3, 근절(eradication)</t>
         </is>
       </c>
     </row>
@@ -839,14 +839,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>干涉
-1. 간섭
-2. 간만(Full)
-3. 유기(Abandon)</t>
+1. 화합(Harmony)
+2. 알현(audience)
+3. 간섭</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1, 간섭</t>
+          <t>3, 간섭</t>
         </is>
       </c>
     </row>
@@ -854,8 +854,8 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>干與
-1. 포기(abandon)
-2. 초유(First)
+1. 참가(join)
+2. 화목(harmony)
 3. 간여</t>
         </is>
       </c>
@@ -870,8 +870,8 @@
         <is>
           <t>若干
 1. 약간(Slightly)
-2. 알현(audience)
-3. 투고(Posting)</t>
+2. 참석
+3. 간호(Nurse)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -886,7 +886,7 @@
           <t>干滿
 1. 간만(Full)
 2. 강도(strength)
-3. 혈세</t>
+3. 세무(Tax)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -899,14 +899,14 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>干拓
-1. 창제(Creation)
-2. 한문(Chinese)
-3. 간척(Reclamation)</t>
+1. 화목(harmony)
+2. 간척(Reclamation)
+3. 세금(Tax)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3, 간척(Reclamation)</t>
+          <t>2, 간척(Reclamation)</t>
         </is>
       </c>
     </row>
@@ -914,14 +914,14 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>見習
-1. 견습(Appraise)
-2. 참석
-3. 첩경</t>
+1. 이론(theory)
+2. 간여
+3. 견습(Appraise)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1, 견습(Appraise)</t>
+          <t>3, 견습(Appraise)</t>
         </is>
       </c>
     </row>
@@ -929,14 +929,14 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>見解
-1. 행간
-2. 투기(Dumping)
-3. 견해(opinion)</t>
+1. 견해(opinion)
+2. 보고(Report)
+3. 견문(knowledge)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3, 견해(opinion)</t>
+          <t>1, 견해(opinion)</t>
         </is>
       </c>
     </row>
@@ -944,14 +944,14 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>見聞
-1. 수용(Acceptance)
-2. 견문(knowledge)
-3. 초유(First)</t>
+1. 창제(Creation)
+2. 직경(diameter)
+3. 견문(knowledge)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2, 견문(knowledge)</t>
+          <t>3, 견문(knowledge)</t>
         </is>
       </c>
     </row>
@@ -960,8 +960,8 @@
         <is>
           <t>謁見
 1. 알현(audience)
-2. 유언(will)
-3. 권세(Power)</t>
+2. 간만(Full)
+3. 근절(eradication)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -974,14 +974,14 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>參加
-1. 내과
-2. 참가(join)
-3. 세력(power)</t>
+1. 간척(Reclamation)
+2. 참석
+3. 참가(join)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2, 참가(join)</t>
+          <t>3, 참가(join)</t>
         </is>
       </c>
     </row>
@@ -990,8 +990,8 @@
         <is>
           <t>參席
 1. 참석
-2. 유리(favorable)
-3. 견해(opinion)</t>
+2. 견문(knowledge)
+3. 강도(strength)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1004,8 +1004,8 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>參見
-1. 내과
-2. 유산(heritage)
+1. 초유(First)
+2. 비탄(grief)
 3. 참견(See)</t>
         </is>
       </c>
@@ -1019,14 +1019,14 @@
       <c r="A40" t="inlineStr">
         <is>
           <t>參與
-1. 참여(participate)
-2. 곡절(tortuous)
-3. 귀천(Expensive)</t>
+1. 괴한(Blame)
+2. 참여(participate)
+3. 수용(Acceptance)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1, 참여(participate)</t>
+          <t>2, 참여(participate)</t>
         </is>
       </c>
     </row>
@@ -1035,8 +1035,8 @@
         <is>
           <t>經緯
 1. 경위
-2. 창제(Creation)
-3. 견해(opinion)</t>
+2. 세금(Tax)
+3. 창제(Creation)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1049,14 +1049,14 @@
       <c r="A42" t="inlineStr">
         <is>
           <t>和睦
-1. 간섭
-2. 참가(join)
-3. 화목(harmony)</t>
+1. 화목(harmony)
+2. 초유(First)
+3. 창제(Creation)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3, 화목(harmony)</t>
+          <t>1, 화목(harmony)</t>
         </is>
       </c>
     </row>
@@ -1064,8 +1064,8 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>和音
-1. 혈세
-2. 직경(diameter)
+1. 초유(First)
+2. 전선(Front)
 3. 화음(Chord)</t>
         </is>
       </c>
@@ -1079,9 +1079,9 @@
       <c r="A44" t="inlineStr">
         <is>
           <t>和解
-1. 근절(eradication)
+1. 입원(hospitalization)
 2. 화해(reconciliation)
-3. 유언(will)</t>
+3. 비탄(grief)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1094,8 +1094,8 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>和合
-1. 학문(knowledge)
-2. 입원(hospitalization)
+1. 강도(strength)
+2. 간섭
 3. 화합(Harmony)</t>
         </is>
       </c>
@@ -1109,14 +1109,14 @@
       <c r="A46" t="inlineStr">
         <is>
           <t>稅金
-1. 세금(Tax)
-2. 경로(Passage)
-3. 간호(Nurse)</t>
+1. 노선(route)
+2. 한자
+3. 세금(Tax)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1, 세금(Tax)</t>
+          <t>3, 세금(Tax)</t>
         </is>
       </c>
     </row>
@@ -1125,8 +1125,8 @@
         <is>
           <t>血洗
 1. 혈세
-2. 간척(Reclamation)
-3. 직경(diameter)</t>
+2. 권세(Power)
+3. 유실(Lose)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1139,14 +1139,14 @@
       <c r="A48" t="inlineStr">
         <is>
           <t>稅務
-1. 강도(strength)
-2. 괴한(Blame)
-3. 세무(Tax)</t>
+1. 세무(Tax)
+2. 유기(Abandon)
+3. 이론(theory)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3, 세무(Tax)</t>
+          <t>1, 세무(Tax)</t>
         </is>
       </c>
     </row>
@@ -1154,8 +1154,8 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>勢力
-1. 귀천(Expensive)
-2. 투기(Dumping)
+1. 간척(Reclamation)
+2. 기반(basis)
 3. 세력(power)</t>
         </is>
       </c>
@@ -1169,14 +1169,14 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>權勢
-1. 근절(eradication)
-2. 권세(Power)
-3. 귀중(You)</t>
+1. 전선(Front)
+2. 곡절(tortuous)
+3. 권세(Power)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2, 권세(Power)</t>
+          <t>3, 권세(Power)</t>
         </is>
       </c>
     </row>
@@ -1185,8 +1185,8 @@
         <is>
           <t>經濟
 1. 경제(economy)
-2. 간호(Nurse)
-3. 내과</t>
+2. 참석
+3. 초유(First)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1200,13 +1200,13 @@
         <is>
           <t>捷徑
 1. 근절(eradication)
-2. 첩경
-3. 구현(Embodiment)</t>
+2. 간척(Reclamation)
+3. 첩경</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2, 첩경, 지름길 멀리 돌지 않고 가깝게 질러 통(通)하는 길(shortcut)</t>
+          <t>3, 첩경, 지름길 멀리 돌지 않고 가깝게 질러 통(通)하는 길(shortcut)</t>
         </is>
       </c>
     </row>
@@ -1214,14 +1214,14 @@
       <c r="A53" t="inlineStr">
         <is>
           <t>經路
-1. 경로(Passage)
-2. 참여(participate)
-3. 견습(Appraise)</t>
+1. 참석
+2. 견습(Appraise)
+3. 경로(Passage)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1, 경로(Passage)</t>
+          <t>3, 경로(Passage)</t>
         </is>
       </c>
     </row>
@@ -1230,8 +1230,8 @@
         <is>
           <t>直徑
 1. 직경(diameter)
-2. 행간
-3. 서막(prelude)</t>
+2. 세무(Tax)
+3. 교양(Cure)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1244,8 +1244,8 @@
       <c r="A55" t="inlineStr">
         <is>
           <t>漢文
-1. 견해(opinion)
-2. 유기(Abandon)
+1. 직경(diameter)
+2. 보고(Report)
 3. 한문(Chinese)</t>
         </is>
       </c>
@@ -1259,14 +1259,14 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>漢字
-1. 견문(knowledge)
-2. 첩경
-3. 한자</t>
+1. 화합(Harmony)
+2. 한자
+3. 수용(Acceptance)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3, 한자</t>
+          <t>2, 한자</t>
         </is>
       </c>
     </row>
@@ -1274,14 +1274,14 @@
       <c r="A57" t="inlineStr">
         <is>
           <t>怪漢
-1. 참견(See)
-2. 참가(join)
-3. 괴한(Blame)</t>
+1. 괴한(Blame)
+2. 세금(Tax)
+3. 전선(Front)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3, 괴한(Blame)</t>
+          <t>1, 괴한(Blame)</t>
         </is>
       </c>
     </row>
@@ -1289,14 +1289,14 @@
       <c r="A58" t="inlineStr">
         <is>
           <t>悲嘆
-1. 경위
-2. 견해(opinion)
-3. 비탄(grief)</t>
+1. 비탄(grief)
+2. 권세(Power)
+3. 초유(First)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3, 비탄(grief)</t>
+          <t>1, 비탄(grief)</t>
         </is>
       </c>
     </row>
@@ -1304,14 +1304,14 @@
       <c r="A59" t="inlineStr">
         <is>
           <t>基盤
-1. 견해(opinion)
-2. 수용(Acceptance)
-3. 기반(basis)</t>
+1. 간만(Full)
+2. 기반(basis)
+3. 유산(heritage)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3, 기반(basis)</t>
+          <t>2, 기반(basis)</t>
         </is>
       </c>
     </row>
@@ -1319,14 +1319,14 @@
       <c r="A60" t="inlineStr">
         <is>
           <t>創製
-1. 경로(Passage)
-2. 견문(knowledge)
-3. 창제(Creation)</t>
+1. 참견(See)
+2. 창제(Creation)
+3. 견문(knowledge)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3, 창제(Creation)</t>
+          <t>2, 창제(Creation)</t>
         </is>
       </c>
     </row>
@@ -1334,14 +1334,14 @@
       <c r="A61" t="inlineStr">
         <is>
           <t>具現
-1. 견문(knowledge)
-2. 구현(Embodiment)
-3. 유리(favorable)</t>
+1. 구현(Embodiment)
+2. 괴한(Blame)
+3. 경로(Passage)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2, 구현(Embodiment)</t>
+          <t>1, 구현(Embodiment)</t>
         </is>
       </c>
     </row>
@@ -1349,14 +1349,14 @@
       <c r="A62" t="inlineStr">
         <is>
           <t>有利
-1. 근절(eradication)
-2. 유리(favorable)
-3. 참견(See)</t>
+1. 유리(favorable)
+2. 세금(Tax)
+3. 시선(Vision)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2, 유리(favorable)</t>
+          <t>1, 유리(favorable)</t>
         </is>
       </c>
     </row>
@@ -1364,14 +1364,14 @@
       <c r="A63" t="inlineStr">
         <is>
           <t>強度
-1. 강도(strength)
-2. 초유(First)
-3. 이론(theory)</t>
+1. 투수(pitcher)
+2. 교양(Cure)
+3. 강도(strength)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1, 강도(strength)</t>
+          <t>3, 강도(strength)</t>
         </is>
       </c>
     </row>
@@ -1379,9 +1379,9 @@
       <c r="A64" t="inlineStr">
         <is>
           <t>統制
-1. 귀천(Expensive)
+1. 포기(abandon)
 2. 통제(control)
-3. 참석</t>
+3. 투수(pitcher)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1394,14 +1394,14 @@
       <c r="A65" t="inlineStr">
         <is>
           <t>行間
-1. 비탄(grief)
-2. 행간
-3. 이론(theory)</t>
+1. 행간
+2. 비탄(grief)
+3. 화목(harmony)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2, 행간</t>
+          <t>1, 행간</t>
         </is>
       </c>
     </row>
@@ -1410,8 +1410,8 @@
         <is>
           <t>端緖
 1. 단서(Ductive)
-2. 화합(Harmony)
-3. 직경(diameter)</t>
+2. 귀중(You)
+3. 전선(Front)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">

--- a/학습자료/단답형/객관식_국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_한자어2글자_번역.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,8 +450,8 @@
         <is>
           <t>內科
 1. 내과
-2. 행간
-3. 서막(prelude)</t>
+2. 귀천(Expensive)
+3. 유리(favorable)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -465,8 +465,8 @@
         <is>
           <t>看護
 1. 간호(Nurse)
-2. 유리(favorable)
-3. 경위</t>
+2. 참가(join)
+3. 시선(Vision)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>入院
-1. 세무(Tax)
-2. 노선(route)
-3. 입원(hospitalization)</t>
+1. 간호(Nurse)
+2. 입원(hospitalization)
+3. 세력(power)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3, 입원(hospitalization)</t>
+          <t>2, 입원(hospitalization)</t>
         </is>
       </c>
     </row>
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>報告
-1. 보고(Report)
-2. 첩경
-3. 화합(Harmony)</t>
+1. 간섭
+2. 보고(Report)
+3. 첩경</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1, 보고(Report)</t>
+          <t>2, 보고(Report)</t>
         </is>
       </c>
     </row>
@@ -510,8 +510,8 @@
         <is>
           <t>曲折
 1. 곡절(tortuous)
-2. 비탄(grief)
-3. 세력(power)</t>
+2. 포기(abandon)
+3. 투기(Dumping)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,8 +524,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>初有
-1. 알현(audience)
-2. 통제(control)
+1. 견문(knowledge)
+2. 전선(Front)
 3. 초유(First)</t>
         </is>
       </c>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>序幕
-1. 투고(Posting)
-2. 비탄(grief)
-3. 서막(prelude)</t>
+1. 서막(prelude)
+2. 경로(Passage)
+3. 야박(Scorpion)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3, 서막(prelude)</t>
+          <t>1, 서막(prelude)</t>
         </is>
       </c>
     </row>
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>敎養
-1. 교양(Cure)
-2. 간호(Nurse)
-3. 투고(Posting)</t>
+1. 직경(diameter)
+2. 교양(Cure)
+3. 유산(heritage)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1, 교양(Cure)</t>
+          <t>2, 교양(Cure)</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>理論
-1. 이론(theory)
-2. 행간
-3. 간섭</t>
+1. 참여(participate)
+2. 이론(theory)
+3. 내과</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1, 이론(theory)</t>
+          <t>2, 이론(theory)</t>
         </is>
       </c>
     </row>
@@ -584,8 +584,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>儒敎
-1. 시선(Vision)
-2. 알현(audience)
+1. 참석
+2. 유산(heritage)
 3. 유교(Conf)</t>
         </is>
       </c>
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>學問
-1. 학문(knowledge)
-2. 유언(will)
-3. 화목(harmony)</t>
+1. 괴한(Blame)
+2. 학문(knowledge)
+3. 상감(Inlaid)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1, 학문(knowledge)</t>
+          <t>2, 학문(knowledge)</t>
         </is>
       </c>
     </row>
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>受容
-1. 직경(diameter)
-2. 수용(Acceptance)
-3. 노선(route)</t>
+1. 화목(harmony)
+2. 강도(strength)
+3. 수용(Acceptance)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2, 수용(Acceptance)</t>
+          <t>3, 수용(Acceptance)</t>
         </is>
       </c>
     </row>
@@ -629,8 +629,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>貴中
-1. 근절(eradication)
-2. 단서(Ductive)
+1. 괴한(Blame)
+2. 보고(Report)
 3. 귀중(You)</t>
         </is>
       </c>
@@ -644,14 +644,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>貴賤
-1. 권세(Power)
-2. 귀천(Expensive)
-3. 이론(theory)</t>
+1. 참여(participate)
+2. 투고(Posting)
+3. 귀천(Expensive)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2, 귀천(Expensive)</t>
+          <t>3, 귀천(Expensive)</t>
         </is>
       </c>
     </row>
@@ -659,14 +659,14 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>遺産
-1. 알현(audience)
-2. 유산(heritage)
-3. 참견(See)</t>
+1. 견문(knowledge)
+2. 한문(Chinese)
+3. 유산(heritage)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2, 유산(heritage)</t>
+          <t>3, 유산(heritage)</t>
         </is>
       </c>
     </row>
@@ -674,9 +674,9 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>遺言
-1. 간만(Full)
+1. 근성(guts)
 2. 유언(will)
-3. 경위</t>
+3. 단서(Ductive)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -689,8 +689,8 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>遺失
-1. 포기(abandon)
-2. 경제(economy)
+1. 첩경
+2. 유리(favorable)
 3. 유실(Lose)</t>
         </is>
       </c>
@@ -704,14 +704,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>遺棄
-1. 투기(Dumping)
-2. 유기(Abandon)
-3. 단서(Ductive)</t>
+1. 유기(Abandon)
+2. 야박(Scorpion)
+3. 상감(Inlaid)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2, 유기(Abandon)</t>
+          <t>1, 유기(Abandon)</t>
         </is>
       </c>
     </row>
@@ -719,14 +719,14 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>投稿
-1. 투고(Posting)
-2. 간섭
-3. 비탄(grief)</t>
+1. 화음(Chord)
+2. 투고(Posting)
+3. 유기(Abandon)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1, 투고(Posting)</t>
+          <t>2, 투고(Posting)</t>
         </is>
       </c>
     </row>
@@ -734,14 +734,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>投手
-1. 유리(favorable)
-2. 견습(Appraise)
-3. 투수(pitcher)</t>
+1. 투수(pitcher)
+2. 참가(join)
+3. 간만(Full)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3, 투수(pitcher)</t>
+          <t>1, 투수(pitcher)</t>
         </is>
       </c>
     </row>
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>投棄
-1. 곡절(tortuous)
-2. 전선(Front)
-3. 투기(Dumping)</t>
+1. 채용(use)
+2. 투기(Dumping)
+3. 교양(Cure)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3, 투기(Dumping)</t>
+          <t>2, 투기(Dumping)</t>
         </is>
       </c>
     </row>
@@ -764,8 +764,8 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>抛棄
-1. 시선(Vision)
-2. 경로(Passage)
+1. 귀중(You)
+2. 유실(Lose)
 3. 포기(abandon)</t>
         </is>
       </c>
@@ -779,14 +779,14 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>路線
-1. 학문(knowledge)
-2. 첩경
-3. 노선(route)</t>
+1. 노선(route)
+2. 창제(Creation)
+3. 유교(Conf)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3, 노선(route)</t>
+          <t>1, 노선(route)</t>
         </is>
       </c>
     </row>
@@ -794,8 +794,8 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>戰線
-1. 유기(Abandon)
-2. 세금(Tax)
+1. 기반(basis)
+2. 화목(harmony)
 3. 전선(Front)</t>
         </is>
       </c>
@@ -809,9 +809,9 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>視線
-1. 첩경
+1. 학문(knowledge)
 2. 시선(Vision)
-3. 기반(basis)</t>
+3. 첩경</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -824,14 +824,14 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>根絶
-1. 초유(First)
-2. 입원(hospitalization)
-3. 근절(eradication)</t>
+1. 간호(Nurse)
+2. 근절(eradication)
+3. 유언(will)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3, 근절(eradication)</t>
+          <t>2, 근절(eradication)</t>
         </is>
       </c>
     </row>
@@ -839,8 +839,8 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>干涉
-1. 화합(Harmony)
-2. 알현(audience)
+1. 전선(Front)
+2. 참견(See)
 3. 간섭</t>
         </is>
       </c>
@@ -854,14 +854,14 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>干與
-1. 참가(join)
-2. 화목(harmony)
-3. 간여</t>
+1. 간여
+2. 비탄(grief)
+3. 참가(join)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3, 간여</t>
+          <t>1, 간여</t>
         </is>
       </c>
     </row>
@@ -869,14 +869,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>若干
-1. 약간(Slightly)
-2. 참석
-3. 간호(Nurse)</t>
+1. 세력(power)
+2. 매목
+3. 약간(Slightly)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1, 약간(Slightly)</t>
+          <t>3, 약간(Slightly)</t>
         </is>
       </c>
     </row>
@@ -884,14 +884,14 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>干滿
-1. 간만(Full)
-2. 강도(strength)
-3. 세무(Tax)</t>
+1. 전선(Front)
+2. 경로(Passage)
+3. 간만(Full)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1, 간만(Full)</t>
+          <t>3, 간만(Full)</t>
         </is>
       </c>
     </row>
@@ -899,14 +899,14 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>干拓
-1. 화목(harmony)
-2. 간척(Reclamation)
-3. 세금(Tax)</t>
+1. 경로(Passage)
+2. 화음(Chord)
+3. 간척(Reclamation)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2, 간척(Reclamation)</t>
+          <t>3, 간척(Reclamation)</t>
         </is>
       </c>
     </row>
@@ -914,14 +914,14 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>見習
-1. 이론(theory)
-2. 간여
-3. 견습(Appraise)</t>
+1. 초유(First)
+2. 견습(Appraise)
+3. 간섭</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3, 견습(Appraise)</t>
+          <t>2, 견습(Appraise)</t>
         </is>
       </c>
     </row>
@@ -929,14 +929,14 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>見解
-1. 견해(opinion)
-2. 보고(Report)
-3. 견문(knowledge)</t>
+1. 유리(favorable)
+2. 견해(opinion)
+3. 귀천(Expensive)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1, 견해(opinion)</t>
+          <t>2, 견해(opinion)</t>
         </is>
       </c>
     </row>
@@ -944,14 +944,14 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>見聞
-1. 창제(Creation)
-2. 직경(diameter)
-3. 견문(knowledge)</t>
+1. 투기(Dumping)
+2. 견문(knowledge)
+3. 약간(Slightly)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3, 견문(knowledge)</t>
+          <t>2, 견문(knowledge)</t>
         </is>
       </c>
     </row>
@@ -959,14 +959,14 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>謁見
-1. 알현(audience)
-2. 간만(Full)
-3. 근절(eradication)</t>
+1. 견문(knowledge)
+2. 알현(audience)
+3. 세력(power)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1, 알현(audience)</t>
+          <t>2, 알현(audience)</t>
         </is>
       </c>
     </row>
@@ -974,14 +974,14 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>參加
-1. 간척(Reclamation)
-2. 참석
-3. 참가(join)</t>
+1. 괴한(Blame)
+2. 참가(join)
+3. 간만(Full)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3, 참가(join)</t>
+          <t>2, 참가(join)</t>
         </is>
       </c>
     </row>
@@ -989,14 +989,14 @@
       <c r="A38" t="inlineStr">
         <is>
           <t>參席
-1. 참석
-2. 견문(knowledge)
-3. 강도(strength)</t>
+1. 권세(Power)
+2. 초유(First)
+3. 참석</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1, 참석</t>
+          <t>3, 참석</t>
         </is>
       </c>
     </row>
@@ -1004,14 +1004,14 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>參見
-1. 초유(First)
-2. 비탄(grief)
-3. 참견(See)</t>
+1. 참견(See)
+2. 권세(Power)
+3. 행간</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3, 참견(See)</t>
+          <t>1, 참견(See)</t>
         </is>
       </c>
     </row>
@@ -1019,9 +1019,9 @@
       <c r="A40" t="inlineStr">
         <is>
           <t>參與
-1. 괴한(Blame)
+1. 간여
 2. 참여(participate)
-3. 수용(Acceptance)</t>
+3. 현실(Reality)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1035,8 +1035,8 @@
         <is>
           <t>經緯
 1. 경위
-2. 세금(Tax)
-3. 창제(Creation)</t>
+2. 서막(prelude)
+3. 유산(heritage)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1049,14 +1049,14 @@
       <c r="A42" t="inlineStr">
         <is>
           <t>和睦
-1. 화목(harmony)
-2. 초유(First)
-3. 창제(Creation)</t>
+1. 간척(Reclamation)
+2. 보판(Supplement)
+3. 화목(harmony)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1, 화목(harmony)</t>
+          <t>3, 화목(harmony)</t>
         </is>
       </c>
     </row>
@@ -1064,8 +1064,8 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>和音
-1. 초유(First)
-2. 전선(Front)
+1. 화목(harmony)
+2. 창제(Creation)
 3. 화음(Chord)</t>
         </is>
       </c>
@@ -1079,9 +1079,9 @@
       <c r="A44" t="inlineStr">
         <is>
           <t>和解
-1. 입원(hospitalization)
+1. 채용(use)
 2. 화해(reconciliation)
-3. 비탄(grief)</t>
+3. 간척(Reclamation)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1094,14 +1094,14 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>和合
-1. 강도(strength)
-2. 간섭
-3. 화합(Harmony)</t>
+1. 화합(Harmony)
+2. 강도(strength)
+3. 간호(Nurse)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3, 화합(Harmony)</t>
+          <t>1, 화합(Harmony)</t>
         </is>
       </c>
     </row>
@@ -1109,14 +1109,14 @@
       <c r="A46" t="inlineStr">
         <is>
           <t>稅金
-1. 노선(route)
-2. 한자
-3. 세금(Tax)</t>
+1. 화목(harmony)
+2. 세금(Tax)
+3. 비탄(grief)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3, 세금(Tax)</t>
+          <t>2, 세금(Tax)</t>
         </is>
       </c>
     </row>
@@ -1124,14 +1124,14 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>血洗
-1. 혈세
-2. 권세(Power)
-3. 유실(Lose)</t>
+1. 서막(prelude)
+2. 기반(basis)
+3. 혈세</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1, 혈세</t>
+          <t>3, 혈세</t>
         </is>
       </c>
     </row>
@@ -1139,14 +1139,14 @@
       <c r="A48" t="inlineStr">
         <is>
           <t>稅務
-1. 세무(Tax)
-2. 유기(Abandon)
-3. 이론(theory)</t>
+1. 근성(guts)
+2. 간척(Reclamation)
+3. 세무(Tax)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1, 세무(Tax)</t>
+          <t>3, 세무(Tax)</t>
         </is>
       </c>
     </row>
@@ -1154,14 +1154,14 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>勢力
-1. 간척(Reclamation)
-2. 기반(basis)
-3. 세력(power)</t>
+1. 세력(power)
+2. 화목(harmony)
+3. 근성(guts)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3, 세력(power)</t>
+          <t>1, 세력(power)</t>
         </is>
       </c>
     </row>
@@ -1169,14 +1169,14 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>權勢
-1. 전선(Front)
-2. 곡절(tortuous)
-3. 권세(Power)</t>
+1. 참석
+2. 권세(Power)
+3. 세력(power)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3, 권세(Power)</t>
+          <t>2, 권세(Power)</t>
         </is>
       </c>
     </row>
@@ -1185,8 +1185,8 @@
         <is>
           <t>經濟
 1. 경제(economy)
-2. 참석
-3. 초유(First)</t>
+2. 이론(theory)
+3. 경로(Passage)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1199,14 +1199,14 @@
       <c r="A52" t="inlineStr">
         <is>
           <t>捷徑
-1. 근절(eradication)
-2. 간척(Reclamation)
-3. 첩경</t>
+1. 참견(See)
+2. 첩경
+3. 유언(will)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3, 첩경, 지름길 멀리 돌지 않고 가깝게 질러 통(通)하는 길(shortcut)</t>
+          <t>2, 첩경, 지름길 멀리 돌지 않고 가깝게 질러 통(通)하는 길(shortcut)</t>
         </is>
       </c>
     </row>
@@ -1214,8 +1214,8 @@
       <c r="A53" t="inlineStr">
         <is>
           <t>經路
-1. 참석
-2. 견습(Appraise)
+1. 유교(Conf)
+2. 보고(Report)
 3. 경로(Passage)</t>
         </is>
       </c>
@@ -1229,14 +1229,14 @@
       <c r="A54" t="inlineStr">
         <is>
           <t>直徑
-1. 직경(diameter)
-2. 세무(Tax)
-3. 교양(Cure)</t>
+1. 상감(Inlaid)
+2. 간척(Reclamation)
+3. 직경(diameter)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1, 직경(diameter)</t>
+          <t>3, 직경(diameter)</t>
         </is>
       </c>
     </row>
@@ -1244,8 +1244,8 @@
       <c r="A55" t="inlineStr">
         <is>
           <t>漢文
-1. 직경(diameter)
-2. 보고(Report)
+1. 수용(Acceptance)
+2. 괴한(Blame)
 3. 한문(Chinese)</t>
         </is>
       </c>
@@ -1259,9 +1259,9 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>漢字
-1. 화합(Harmony)
+1. 교양(Cure)
 2. 한자
-3. 수용(Acceptance)</t>
+3. 귀중(You)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1274,14 +1274,14 @@
       <c r="A57" t="inlineStr">
         <is>
           <t>怪漢
-1. 괴한(Blame)
-2. 세금(Tax)
-3. 전선(Front)</t>
+1. 유기(Abandon)
+2. 괴한(Blame)
+3. 통제(control)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1, 괴한(Blame)</t>
+          <t>2, 괴한(Blame)</t>
         </is>
       </c>
     </row>
@@ -1290,8 +1290,8 @@
         <is>
           <t>悲嘆
 1. 비탄(grief)
-2. 권세(Power)
-3. 초유(First)</t>
+2. 현실(Reality)
+3. 참견(See)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1304,14 +1304,14 @@
       <c r="A59" t="inlineStr">
         <is>
           <t>基盤
-1. 간만(Full)
-2. 기반(basis)
-3. 유산(heritage)</t>
+1. 귀천(Expensive)
+2. 알현(audience)
+3. 기반(basis)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2, 기반(basis)</t>
+          <t>3, 기반(basis)</t>
         </is>
       </c>
     </row>
@@ -1319,14 +1319,14 @@
       <c r="A60" t="inlineStr">
         <is>
           <t>創製
-1. 참견(See)
-2. 창제(Creation)
-3. 견문(knowledge)</t>
+1. 간척(Reclamation)
+2. 포기(abandon)
+3. 창제(Creation)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2, 창제(Creation)</t>
+          <t>3, 창제(Creation)</t>
         </is>
       </c>
     </row>
@@ -1334,14 +1334,14 @@
       <c r="A61" t="inlineStr">
         <is>
           <t>具現
-1. 구현(Embodiment)
-2. 괴한(Blame)
-3. 경로(Passage)</t>
+1. 한문(Chinese)
+2. 구현(Embodiment)
+3. 참견(See)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1, 구현(Embodiment)</t>
+          <t>2, 구현(Embodiment)</t>
         </is>
       </c>
     </row>
@@ -1349,14 +1349,14 @@
       <c r="A62" t="inlineStr">
         <is>
           <t>有利
-1. 유리(favorable)
-2. 세금(Tax)
-3. 시선(Vision)</t>
+1. 유교(Conf)
+2. 유리(favorable)
+3. 서막(prelude)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1, 유리(favorable)</t>
+          <t>2, 유리(favorable)</t>
         </is>
       </c>
     </row>
@@ -1364,8 +1364,8 @@
       <c r="A63" t="inlineStr">
         <is>
           <t>強度
-1. 투수(pitcher)
-2. 교양(Cure)
+1. 유기(Abandon)
+2. 경로(Passage)
 3. 강도(strength)</t>
         </is>
       </c>
@@ -1379,14 +1379,14 @@
       <c r="A64" t="inlineStr">
         <is>
           <t>統制
-1. 포기(abandon)
-2. 통제(control)
-3. 투수(pitcher)</t>
+1. 경로(Passage)
+2. 한자
+3. 통제(control)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2, 통제(control)</t>
+          <t>3, 통제(control)</t>
         </is>
       </c>
     </row>
@@ -1394,14 +1394,14 @@
       <c r="A65" t="inlineStr">
         <is>
           <t>行間
-1. 행간
-2. 비탄(grief)
-3. 화목(harmony)</t>
+1. 혈세
+2. 유실(Lose)
+3. 행간</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1, 행간</t>
+          <t>3, 행간</t>
         </is>
       </c>
     </row>
@@ -1409,14 +1409,134 @@
       <c r="A66" t="inlineStr">
         <is>
           <t>端緖
-1. 단서(Ductive)
-2. 귀중(You)
-3. 전선(Front)</t>
+1. 유언(will)
+2. 단서(Ductive)
+3. 혈세</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1, 단서(Ductive)</t>
+          <t>2, 단서(Ductive)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>毁損
+1. 화음(Chord)
+2. 훼손(damage)
+3. 참가(join)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2, 훼손(damage)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>埋木
+1. 유실(Lose)
+2. 매목
+3. 경위</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2, 매목</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>象嵌
+1. 상감(Inlaid)
+2. 혈세
+3. 채용(use)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1, 상감(Inlaid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>補板
+1. 세력(power)
+2. 보판(Supplement)
+3. 입원(hospitalization)</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2, 보판(Supplement)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>現實
+1. 행간
+2. 현실(Reality)
+3. 투기(Dumping)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2, 현실(Reality)</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>野薄
+1. 야박(Scorpion)
+2. 초유(First)
+3. 경위</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1, 야박(Scorpion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>根性
+1. 근성(guts)
+2. 간호(Nurse)
+3. 노선(route)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1, 근성(guts)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>採用
+1. 비탄(grief)
+2. 채용(use)
+3. 견해(opinion)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2, 채용(use)</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_한자어2글자_번역.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>內科
-1. 화물(goods)
-2. 내과
-3. 보고(Report)</t>
+1. 내과
+2. 유기(Abandon)
+3. 간여</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, 내과</t>
+          <t>1, 내과</t>
         </is>
       </c>
     </row>
@@ -464,9 +464,9 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>看護
-1. 조작(Construction)
+1. 유감(Pity)
 2. 간호(Nurse)
-3. 창제(Creation)</t>
+3. 유리(favorable)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>入院
-1. 입원(hospitalization)
-2. 맹세(Oath)
-3. 현실(Reality)</t>
+1. 대화(dialogue)
+2. 세무(Tax)
+3. 입원(hospitalization)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1, 입원(hospitalization)</t>
+          <t>3, 입원(hospitalization)</t>
         </is>
       </c>
     </row>
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>報告
-1. 보고(Report)
-2. 화제(topic)
-3. 이론(theory)</t>
+1. 직경(diameter)
+2. 정의(justice)
+3. 보고(Report)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1, 보고(Report)</t>
+          <t>3, 보고(Report)</t>
         </is>
       </c>
     </row>
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>曲折
-1. 곡절(tortuous)
-2. 직경(diameter)
-3. 선거(election)</t>
+1. 회피(Avoidance)
+2. 간여
+3. 곡절(tortuous)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1, 곡절(tortuous)</t>
+          <t>3, 곡절(tortuous)</t>
         </is>
       </c>
     </row>
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>初有
-1. 선정
-2. 초유(First)
-3. 동맹(alliance)</t>
+1. 초유(First)
+2. 화목(harmony)
+3. 동화</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2, 초유(First)</t>
+          <t>1, 초유(First)</t>
         </is>
       </c>
     </row>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>序幕
-1. 유산(heritage)
-2. 서막(prelude)
-3. 포기(abandon)</t>
+1. 발각(find)
+2. 침체(Depression)
+3. 서막(prelude)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2, 서막(prelude)</t>
+          <t>3, 서막(prelude)</t>
         </is>
       </c>
     </row>
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>敎養
-1. 조작(Construction)
-2. 교양(Cure)
-3. 서언(oath)</t>
+1. 교양(Cure)
+2. 투기(Dumping)
+3. 세무(Tax)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2, 교양(Cure)</t>
+          <t>1, 교양(Cure)</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>理論
-1. 이론(theory)
-2. 재화(Money)
-3. 서약(Vow)</t>
+1. 통화(Calling)
+2. 이론(theory)
+3. 세금(Tax)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1, 이론(theory)</t>
+          <t>2, 이론(theory)</t>
         </is>
       </c>
     </row>
@@ -584,9 +584,9 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>儒敎
-1. 간호(Nurse)
+1. 경위
 2. 유교(Conf)
-3. 지지(support)</t>
+3. 괴한(Blame)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>學問
-1. 현상(Phenomenon)
-2. 학문(knowledge)
-3. 곡절(tortuous)</t>
+1. 학문(knowledge)
+2. 유리(favorable)
+3. 노선(route)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2, 학문(knowledge)</t>
+          <t>1, 학문(knowledge)</t>
         </is>
       </c>
     </row>
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>受容
-1. 정부(government)
-2. 수용(Acceptance)
-3. 부활(Revival)</t>
+1. 약간(Slightly)
+2. 직경(diameter)
+3. 수용(Acceptance)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2, 수용(Acceptance)</t>
+          <t>3, 수용(Acceptance)</t>
         </is>
       </c>
     </row>
@@ -629,14 +629,14 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>貴中
-1. 첩경
-2. 귀중(You)
-3. 도전(challenge)</t>
+1. 서막(prelude)
+2. 침체(Depression)
+3. 귀중(You)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2, 귀중(You)</t>
+          <t>3, 귀중(You)</t>
         </is>
       </c>
     </row>
@@ -644,14 +644,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>貴賤
-1. 공공(public)
-2. 흉조(Fierce)
-3. 귀천(Expensive)</t>
+1. 동맹(alliance)
+2. 귀천(Expensive)
+3. 도망(escape)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3, 귀천(Expensive)</t>
+          <t>2, 귀천(Expensive)</t>
         </is>
       </c>
     </row>
@@ -659,14 +659,14 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>遺産
-1. 유산(heritage)
-2. 알현(audience)
-3. 유감(Pity)</t>
+1. 남용(Abuse)
+2. 혈세
+3. 유산(heritage)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1, 유산(heritage)</t>
+          <t>3, 유산(heritage)</t>
         </is>
       </c>
     </row>
@@ -674,14 +674,14 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>遺言
-1. 정파
-2. 유언(will)
-3. 간섭</t>
+1. 귀천(Expensive)
+2. 자태(attitude)
+3. 유언(will)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2, 유언(will)</t>
+          <t>3, 유언(will)</t>
         </is>
       </c>
     </row>
@@ -689,14 +689,14 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>遺失
-1. 유실(Lose)
-2. 언약(Appointment)
-3. 망조(Omen)</t>
+1. 괴한(Blame)
+2. 보고(Report)
+3. 유실(Lose)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1, 유실(Lose)</t>
+          <t>3, 유실(Lose)</t>
         </is>
       </c>
     </row>
@@ -704,14 +704,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>遺棄
-1. 유기(Abandon)
-2. 사건(event)
-3. 보고(Report)</t>
+1. 근절(eradication)
+2. 유기(Abandon)
+3. 기반(basis)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1, 유기(Abandon)</t>
+          <t>2, 유기(Abandon)</t>
         </is>
       </c>
     </row>
@@ -719,8 +719,8 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>投稿
-1. 투수(pitcher)
-2. 대화(dialogue)
+1. 학문(knowledge)
+2. 권세(Power)
 3. 투고(Posting)</t>
         </is>
       </c>
@@ -734,14 +734,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>投手
-1. 참견(See)
-2. 투수(pitcher)
-3. 정직(honest)</t>
+1. 근절(eradication)
+2. 유기(Abandon)
+3. 투수(pitcher)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2, 투수(pitcher)</t>
+          <t>3, 투수(pitcher)</t>
         </is>
       </c>
     </row>
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>投棄
-1. 통화(currency)
-2. 투기(Dumping)
-3. 지급(provision)</t>
+1. 맹세(Oath)
+2. 단정(Determine)
+3. 투기(Dumping)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2, 투기(Dumping)</t>
+          <t>3, 투기(Dumping)</t>
         </is>
       </c>
     </row>
@@ -764,14 +764,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>抛棄
-1. 지지(support)
-2. 포기(abandon)
-3. 도전(challenge)</t>
+1. 발각(find)
+2. 근절(eradication)
+3. 포기(abandon)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2, 포기(abandon)</t>
+          <t>3, 포기(abandon)</t>
         </is>
       </c>
     </row>
@@ -780,8 +780,8 @@
         <is>
           <t>路線
 1. 노선(route)
-2. 화폐(currency)
-3. 투수(pitcher)</t>
+2. 선거(election)
+3. 대화(dialogue)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -794,14 +794,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>戰線
-1. 한자
-2. 화해(reconciliation)
-3. 전선(Front)</t>
+1. 전선(Front)
+2. 채용(use)
+3. 화폐(currency)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3, 전선(Front)</t>
+          <t>1, 전선(Front)</t>
         </is>
       </c>
     </row>
@@ -809,14 +809,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>視線
-1. 전선(Front)
-2. 격언(motto)
-3. 시선(Vision)</t>
+1. 시선(Vision)
+2. 통화(Calling)
+3. 견습(Appraise)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3, 시선(Vision)</t>
+          <t>1, 시선(Vision)</t>
         </is>
       </c>
     </row>
@@ -824,14 +824,14 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>根絶
-1. 길조
-2. 근절(eradication)
-3. 화목(harmony)</t>
+1. 공공(public)
+2. 선정
+3. 근절(eradication)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2, 근절(eradication)</t>
+          <t>3, 근절(eradication)</t>
         </is>
       </c>
     </row>
@@ -839,14 +839,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>干涉
-1. 간섭
-2. 공공(public)
-3. 동맹(alliance)</t>
+1. 도망(escape)
+2. 간섭
+3. 한문(Chinese)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1, 간섭</t>
+          <t>2, 간섭</t>
         </is>
       </c>
     </row>
@@ -855,8 +855,8 @@
         <is>
           <t>干與
 1. 간여
-2. 화폐(currency)
-3. 동화</t>
+2. 행간
+3. 공공(public)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -869,14 +869,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>若干
-1. 화목(harmony)
-2. 약간(Slightly)
-3. 강도(strength)</t>
+1. 약간(Slightly)
+2. 야박(Scorpion)
+3. 도주(escape)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2, 약간(Slightly)</t>
+          <t>1, 약간(Slightly)</t>
         </is>
       </c>
     </row>
@@ -884,14 +884,14 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>干滿
-1. 유산(heritage)
-2. 권세(Power)
-3. 간만(Full)</t>
+1. 단정(Determine)
+2. 간만(Full)
+3. 투기(Dumping)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3, 간만(Full)</t>
+          <t>2, 간만(Full)</t>
         </is>
       </c>
     </row>
@@ -899,14 +899,14 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>干拓
-1. 채용(use)
-2. 간척(Reclamation)
-3. 지지(support)</t>
+1. 정파
+2. 구현(Embodiment)
+3. 간척(Reclamation)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2, 간척(Reclamation)</t>
+          <t>3, 간척(Reclamation)</t>
         </is>
       </c>
     </row>
@@ -914,9 +914,9 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>見習
-1. 참가(join)
+1. 회피(Avoidance)
 2. 견습(Appraise)
-3. 지급(provision)</t>
+3. 화물(goods)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -929,14 +929,14 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>見解
-1. 견해(opinion)
-2. 선정
-3. 보고(Report)</t>
+1. 보고(Report)
+2. 투수(pitcher)
+3. 견해(opinion)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1, 견해(opinion)</t>
+          <t>3, 견해(opinion)</t>
         </is>
       </c>
     </row>
@@ -944,14 +944,14 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>見聞
-1. 견문(knowledge)
-2. 통화(Calling)
-3. 약간(Slightly)</t>
+1. 참여(participate)
+2. 견문(knowledge)
+3. 간여</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1, 견문(knowledge)</t>
+          <t>2, 견문(knowledge)</t>
         </is>
       </c>
     </row>
@@ -959,14 +959,14 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>謁見
-1. 알현(audience)
-2. 선정
-3. 묵살(Kill)</t>
+1. 선거(election)
+2. 공감(sympathy)
+3. 알현(audience)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1, 알현(audience)</t>
+          <t>3, 알현(audience)</t>
         </is>
       </c>
     </row>
@@ -974,14 +974,14 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>參加
-1. 참견(See)
-2. 화물(goods)
-3. 참가(join)</t>
+1. 참가(join)
+2. 맹방(Allies)
+3. 세금(Tax)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3, 참가(join)</t>
+          <t>1, 참가(join)</t>
         </is>
       </c>
     </row>
@@ -989,14 +989,14 @@
       <c r="A38" t="inlineStr">
         <is>
           <t>參席
-1. 구현(Embodiment)
-2. 화합(Harmony)
-3. 참석</t>
+1. 침체(Depression)
+2. 참석
+3. 행간</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3, 참석</t>
+          <t>2, 참석</t>
         </is>
       </c>
     </row>
@@ -1004,14 +1004,14 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>參見
-1. 서언(oath)
-2. 재화(Money)
-3. 참견(See)</t>
+1. 참견(See)
+2. 세무(Tax)
+3. 참가(join)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3, 참견(See)</t>
+          <t>1, 참견(See)</t>
         </is>
       </c>
     </row>
@@ -1019,14 +1019,14 @@
       <c r="A40" t="inlineStr">
         <is>
           <t>參與
-1. 참여(participate)
-2. 행간
-3. 혈세</t>
+1. 유교(Conf)
+2. 참여(participate)
+3. 투고(Posting)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1, 참여(participate)</t>
+          <t>2, 참여(participate)</t>
         </is>
       </c>
     </row>
@@ -1034,14 +1034,14 @@
       <c r="A41" t="inlineStr">
         <is>
           <t>經緯
-1. 알현(audience)
-2. 경위
-3. 선정</t>
+1. 서막(prelude)
+2. 견습(Appraise)
+3. 경위</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2, 경위</t>
+          <t>3, 경위</t>
         </is>
       </c>
     </row>
@@ -1049,14 +1049,14 @@
       <c r="A42" t="inlineStr">
         <is>
           <t>和睦
-1. 강도(strength)
-2. 화목(harmony)
-3. 조작(Construction)</t>
+1. 투수(pitcher)
+2. 활로(Live)
+3. 화목(harmony)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2, 화목(harmony)</t>
+          <t>3, 화목(harmony)</t>
         </is>
       </c>
     </row>
@@ -1065,8 +1065,8 @@
         <is>
           <t>和音
 1. 화음(Chord)
-2. 공공(public)
-3. 도주(escape)</t>
+2. 창제(Creation)
+3. 남용(Abuse)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1079,14 +1079,14 @@
       <c r="A44" t="inlineStr">
         <is>
           <t>和解
-1. 선수(player)
-2. 시선(Vision)
-3. 화해(reconciliation)</t>
+1. 단정(Determine)
+2. 화해(reconciliation)
+3. 충분(full)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3, 화해(reconciliation)</t>
+          <t>2, 화해(reconciliation)</t>
         </is>
       </c>
     </row>
@@ -1094,14 +1094,14 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>和合
-1. 동화
-2. 화합(Harmony)
-3. 맹세(Oath)</t>
+1. 화합(Harmony)
+2. 보판(Supplement)
+3. 급여(Give)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2, 화합(Harmony)</t>
+          <t>1, 화합(Harmony)</t>
         </is>
       </c>
     </row>
@@ -1109,8 +1109,8 @@
       <c r="A46" t="inlineStr">
         <is>
           <t>稅金
-1. 활로(Live)
-2. 유기(Abandon)
+1. 자세(carefulness)
+2. 부활(Revival)
 3. 세금(Tax)</t>
         </is>
       </c>
@@ -1124,14 +1124,14 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>血洗
-1. 혈세
-2. 화폐(currency)
-3. 보고(Report)</t>
+1. 방역
+2. 혈세
+3. 안정(Stability)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1, 혈세</t>
+          <t>2, 혈세</t>
         </is>
       </c>
     </row>
@@ -1139,14 +1139,14 @@
       <c r="A48" t="inlineStr">
         <is>
           <t>稅務
-1. 세무(Tax)
-2. 학문(knowledge)
-3. 약간(Slightly)</t>
+1. 유리(favorable)
+2. 세무(Tax)
+3. 화합(Harmony)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1, 세무(Tax)</t>
+          <t>2, 세무(Tax)</t>
         </is>
       </c>
     </row>
@@ -1154,14 +1154,14 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>勢力
-1. 알현(audience)
-2. 유기(Abandon)
-3. 세력(power)</t>
+1. 충분(full)
+2. 세력(power)
+3. 교양(Cure)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3, 세력(power)</t>
+          <t>2, 세력(power)</t>
         </is>
       </c>
     </row>
@@ -1169,14 +1169,14 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>權勢
-1. 창제(Creation)
-2. 격언(motto)
-3. 권세(Power)</t>
+1. 권세(Power)
+2. 채용(use)
+3. 참견(See)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3, 권세(Power)</t>
+          <t>1, 권세(Power)</t>
         </is>
       </c>
     </row>
@@ -1185,8 +1185,8 @@
         <is>
           <t>經濟
 1. 경제(economy)
-2. 강도(strength)
-3. 사건(event)</t>
+2. 공감(sympathy)
+3. 단서(Ductive)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1199,9 +1199,9 @@
       <c r="A52" t="inlineStr">
         <is>
           <t>捷徑
-1. 실화(truth)
+1. 권세(Power)
 2. 첩경
-3. 참석</t>
+3. 교양(Cure)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1214,14 +1214,14 @@
       <c r="A53" t="inlineStr">
         <is>
           <t>經路
-1. 경로(Passage)
-2. 보판(Supplement)
+1. 귀중(You)
+2. 경로(Passage)
 3. 실화(truth)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1, 경로(Passage)</t>
+          <t>2, 경로(Passage)</t>
         </is>
       </c>
     </row>
@@ -1229,14 +1229,14 @@
       <c r="A54" t="inlineStr">
         <is>
           <t>直徑
-1. 한문(Chinese)
-2. 화제(topic)
-3. 직경(diameter)</t>
+1. 학문(knowledge)
+2. 직경(diameter)
+3. 현실(Reality)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3, 직경(diameter)</t>
+          <t>2, 직경(diameter)</t>
         </is>
       </c>
     </row>
@@ -1244,14 +1244,14 @@
       <c r="A55" t="inlineStr">
         <is>
           <t>漢文
-1. 이론(theory)
-2. 약간(Slightly)
-3. 한문(Chinese)</t>
+1. 내과
+2. 한문(Chinese)
+3. 경로(Passage)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3, 한문(Chinese)</t>
+          <t>2, 한문(Chinese)</t>
         </is>
       </c>
     </row>
@@ -1259,14 +1259,14 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>漢字
-1. 한자
-2. 직경(diameter)
-3. 발각(find)</t>
+1. 귀천(Expensive)
+2. 한자
+3. 견문(knowledge)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1, 한자</t>
+          <t>2, 한자</t>
         </is>
       </c>
     </row>
@@ -1274,14 +1274,14 @@
       <c r="A57" t="inlineStr">
         <is>
           <t>怪漢
-1. 지배(Rule)
-2. 활력(vitality)
-3. 괴한(Blame)</t>
+1. 공공(public)
+2. 괴한(Blame)
+3. 현상(Phenomenon)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3, 괴한(Blame)</t>
+          <t>2, 괴한(Blame)</t>
         </is>
       </c>
     </row>
@@ -1289,161 +1289,161 @@
       <c r="A58" t="inlineStr">
         <is>
           <t>悲嘆
-1. 동맹(alliance)
+1. 비탄(grief)
+2. 곡절(tortuous)
+3. 알현(audience)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1, 비탄(grief)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>基盤
+1. 간여
+2. 기반(basis)
+3. 경제(economy)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2, 기반(basis)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>創製
+1. 노선(route)
+2. 유감(Pity)
+3. 창제(Creation)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>3, 창제(Creation)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>具現
+1. 상감(Inlaid)
+2. 남용(Abuse)
+3. 구현(Embodiment)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>3, 구현(Embodiment)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>有利
+1. 서약(Vow)
+2. 도전(challenge)
+3. 유리(favorable)</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>3, 유리(favorable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>強度
+1. 입원(hospitalization)
+2. 강도(strength)
+3. 견습(Appraise)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2, 강도(strength)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>統制
+1. 정부(government)
+2. 정의(justice)
+3. 통제(control)</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>3, 통제(control)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>行間
+1. 귀중(You)
+2. 행간
+3. 자태(attitude)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2, 행간</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>端緖
+1. 단서(Ductive)
+2. 투기(Dumping)
+3. 알현(audience)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1, 단서(Ductive)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>毁損
+1. 시선(Vision)
+2. 훼손(damage)
+3. 공동(common)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2, 훼손(damage)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>埋木
+1. 발각(find)
 2. 비탄(grief)
 3. 매목</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2, 비탄(grief)</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>基盤
-1. 세력(power)
-2. 서막(prelude)
-3. 기반(basis)</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>3, 기반(basis)</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>創製
-1. 창제(Creation)
-2. 참가(join)
-3. 묵인(default)</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1, 창제(Creation)</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>具現
-1. 도주(escape)
-2. 조작(Construction)
-3. 구현(Embodiment)</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>3, 구현(Embodiment)</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>有利
-1. 유리(favorable)
-2. 괴한(Blame)
-3. 훼손(damage)</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1, 유리(favorable)</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>強度
-1. 강도(strength)
-2. 화두(Words)
-3. 세력(power)</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1, 강도(strength)</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>統制
-1. 훼손(damage)
-2. 통제(control)
-3. 견습(Appraise)</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2, 통제(control)</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>行間
-1. 발각(find)
-2. 유실(Lose)
-3. 행간</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>3, 행간</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>端緖
-1. 정치(politics)
-2. 내과
-3. 단서(Ductive)</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>3, 단서(Ductive)</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>毁損
-1. 교양(Cure)
-2. 훼손(damage)
-3. 활력(vitality)</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2, 훼손(damage)</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>埋木
-1. 실화(truth)
-2. 견해(opinion)
-3. 매목</t>
-        </is>
-      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>3, 매목</t>
@@ -1454,14 +1454,14 @@
       <c r="A69" t="inlineStr">
         <is>
           <t>象嵌
-1. 참가(join)
-2. 상감(Inlaid)
-3. 침묵(silence)</t>
+1. 차치(Put)
+2. 정의(justice)
+3. 상감(Inlaid)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2, 상감(Inlaid)</t>
+          <t>3, 상감(Inlaid)</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1469,14 @@
       <c r="A70" t="inlineStr">
         <is>
           <t>補板
-1. 보판(Supplement)
-2. 경위
-3. 도발</t>
+1. 정의(justice)
+2. 발각(find)
+3. 보판(Supplement)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1, 보판(Supplement)</t>
+          <t>3, 보판(Supplement)</t>
         </is>
       </c>
     </row>
@@ -1484,14 +1484,14 @@
       <c r="A71" t="inlineStr">
         <is>
           <t>現實
-1. 약간(Slightly)
-2. 사건(event)
-3. 현실(Reality)</t>
+1. 현실(Reality)
+2. 단서(Ductive)
+3. 수용(Acceptance)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3, 현실(Reality)</t>
+          <t>1, 현실(Reality)</t>
         </is>
       </c>
     </row>
@@ -1499,14 +1499,14 @@
       <c r="A72" t="inlineStr">
         <is>
           <t>野薄
-1. 지급(provision)
-2. 정의(justice)
-3. 야박(Scorpion)</t>
+1. 시선(Vision)
+2. 야박(Scorpion)
+3. 참여(participate)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3, 야박(Scorpion)</t>
+          <t>2, 야박(Scorpion)</t>
         </is>
       </c>
     </row>
@@ -1514,14 +1514,14 @@
       <c r="A73" t="inlineStr">
         <is>
           <t>根性
-1. 참석
-2. 투수(pitcher)
-3. 근성(guts)</t>
+1. 흉조(Fierce)
+2. 근성(guts)
+3. 구조(structure)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3, 근성(guts)</t>
+          <t>2, 근성(guts)</t>
         </is>
       </c>
     </row>
@@ -1530,8 +1530,8 @@
         <is>
           <t>採用
 1. 채용(use)
-2. 곡절(tortuous)
-3. 정부(government)</t>
+2. 구현(Embodiment)
+3. 근절(eradication)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1544,14 +1544,14 @@
       <c r="A75" t="inlineStr">
         <is>
           <t>活力
-1. 활력(vitality)
-2. 공동(common)
-3. 행간</t>
+1. 정파
+2. 활력(vitality)
+3. 보판(Supplement)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1, 활력(vitality)</t>
+          <t>2, 활력(vitality)</t>
         </is>
       </c>
     </row>
@@ -1559,14 +1559,14 @@
       <c r="A76" t="inlineStr">
         <is>
           <t>活路
-1. 활로(Live)
-2. 선정
-3. 정직(honest)</t>
+1. 선거(election)
+2. 활로(Live)
+3. 귀천(Expensive)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1, 활로(Live)</t>
+          <t>2, 활로(Live)</t>
         </is>
       </c>
     </row>
@@ -1574,9 +1574,9 @@
       <c r="A77" t="inlineStr">
         <is>
           <t>復活
-1. 행간
+1. 시선(Vision)
 2. 부활(Revival)
-3. 묵살(Kill)</t>
+3. 참석</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1589,14 +1589,14 @@
       <c r="A78" t="inlineStr">
         <is>
           <t>對話
-1. 대화(dialogue)
-2. 입원(hospitalization)
-3. 창제(Creation)</t>
+1. 한자
+2. 투수(pitcher)
+3. 대화(dialogue)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1, 대화(dialogue)</t>
+          <t>3, 대화(dialogue)</t>
         </is>
       </c>
     </row>
@@ -1604,14 +1604,14 @@
       <c r="A79" t="inlineStr">
         <is>
           <t>童話
-1. 동화
-2. 곡절(tortuous)
-3. 보판(Supplement)</t>
+1. 공공(public)
+2. 유교(Conf)
+3. 동화</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1, 동화</t>
+          <t>3, 동화</t>
         </is>
       </c>
     </row>
@@ -1619,14 +1619,14 @@
       <c r="A80" t="inlineStr">
         <is>
           <t>實話
-1. 정직(honest)
-2. 맹방(Allies)
-3. 실화(truth)</t>
+1. 현실(Reality)
+2. 실화(truth)
+3. 발각(find)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3, 실화(truth)</t>
+          <t>2, 실화(truth)</t>
         </is>
       </c>
     </row>
@@ -1634,14 +1634,14 @@
       <c r="A81" t="inlineStr">
         <is>
           <t>共感
-1. 공감(sympathy)
-2. 도발
-3. 활력(vitality)</t>
+1. 차치(Put)
+2. 공감(sympathy)
+3. 지지(support)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1, 공감(sympathy)</t>
+          <t>2, 공감(sympathy)</t>
         </is>
       </c>
     </row>
@@ -1649,14 +1649,14 @@
       <c r="A82" t="inlineStr">
         <is>
           <t>公共
-1. 근성(guts)
-2. 근절(eradication)
-3. 공공(public)</t>
+1. 공공(public)
+2. 견습(Appraise)
+3. 화제(topic)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>3, 공공(public)</t>
+          <t>1, 공공(public)</t>
         </is>
       </c>
     </row>
@@ -1664,14 +1664,14 @@
       <c r="A83" t="inlineStr">
         <is>
           <t>共同
-1. 공동(common)
-2. 비탄(grief)
-3. 조작(Construction)</t>
+1. 귀중(You)
+2. 선정
+3. 공동(common)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1, 공동(common)</t>
+          <t>3, 공동(common)</t>
         </is>
       </c>
     </row>
@@ -1679,9 +1679,9 @@
       <c r="A84" t="inlineStr">
         <is>
           <t>選擧
-1. 세금(Tax)
+1. 직경(diameter)
 2. 선거(election)
-3. 화합(Harmony)</t>
+3. 사건(event)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1694,14 +1694,14 @@
       <c r="A85" t="inlineStr">
         <is>
           <t>選手
-1. 규정(Regulation)
-2. 선수(player)
-3. 서언(oath)</t>
+1. 선수(player)
+2. 조작(Construction)
+3. 비탄(grief)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2, 선수(player)</t>
+          <t>1, 선수(player)</t>
         </is>
       </c>
     </row>
@@ -1709,14 +1709,14 @@
       <c r="A86" t="inlineStr">
         <is>
           <t>選擇
-1. 선택(choose)
-2. 간만(Full)
-3. 경로(Passage)</t>
+1. 근절(eradication)
+2. 조작(Construction)
+3. 선택(choose)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1, 선택(choose)</t>
+          <t>3, 선택(choose)</t>
         </is>
       </c>
     </row>
@@ -1724,14 +1724,14 @@
       <c r="A87" t="inlineStr">
         <is>
           <t>言約
-1. 언약(Appointment)
-2. 참석
-3. 서막(prelude)</t>
+1. 도피(escape)
+2. 언약(Appointment)
+3. 통화(Calling)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1, 언약(Appointment)</t>
+          <t>2, 언약(Appointment)</t>
         </is>
       </c>
     </row>
@@ -1739,14 +1739,14 @@
       <c r="A88" t="inlineStr">
         <is>
           <t>言論
-1. 도발
-2. 세력(power)
-3. 언론(Remark)</t>
+1. 언론(Remark)
+2. 동맹(alliance)
+3. 행간</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>3, 언론(Remark)</t>
+          <t>1, 언론(Remark)</t>
         </is>
       </c>
     </row>
@@ -1754,9 +1754,9 @@
       <c r="A89" t="inlineStr">
         <is>
           <t>格言
-1. 현실(Reality)
+1. 세무(Tax)
 2. 격언(motto)
-3. 참석</t>
+3. 통제(control)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1769,14 +1769,14 @@
       <c r="A90" t="inlineStr">
         <is>
           <t>話頭
-1. 참석
-2. 매목
-3. 화두(Words)</t>
+1. 지배(Rule)
+2. 화두(Words)
+3. 공감(sympathy)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>3, 화두(Words)</t>
+          <t>2, 화두(Words)</t>
         </is>
       </c>
     </row>
@@ -1784,14 +1784,14 @@
       <c r="A91" t="inlineStr">
         <is>
           <t>通話
-1. 급여(Give)
-2. 한문(Chinese)
-3. 통화(Calling)</t>
+1. 직경(diameter)
+2. 통화(Calling)
+3. 서약(Vow)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>3, 통화(Calling)</t>
+          <t>2, 통화(Calling)</t>
         </is>
       </c>
     </row>
@@ -1799,14 +1799,14 @@
       <c r="A92" t="inlineStr">
         <is>
           <t>話題
-1. 발각(find)
-2. 활로(Live)
-3. 화제(topic)</t>
+1. 행간
+2. 화제(topic)
+3. 동맹(alliance)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>3, 화제(topic)</t>
+          <t>2, 화제(topic)</t>
         </is>
       </c>
     </row>
@@ -1814,14 +1814,14 @@
       <c r="A93" t="inlineStr">
         <is>
           <t>通貨
-1. 통화(currency)
-2. 첩경
-3. 기반(basis)</t>
+1. 화물(goods)
+2. 안정(Stability)
+3. 통화(currency)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1, 통화(currency)</t>
+          <t>3, 통화(currency)</t>
         </is>
       </c>
     </row>
@@ -1829,14 +1829,14 @@
       <c r="A94" t="inlineStr">
         <is>
           <t>財貨
-1. 묵살(Kill)
-2. 야박(Scorpion)
-3. 재화(Money)</t>
+1. 재화(Money)
+2. 채용(use)
+3. 기반(basis)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>3, 재화(Money)</t>
+          <t>1, 재화(Money)</t>
         </is>
       </c>
     </row>
@@ -1844,14 +1844,14 @@
       <c r="A95" t="inlineStr">
         <is>
           <t>貨幣
-1. 구조(structure)
-2. 화폐(currency)
-3. 안정(Stability)</t>
+1. 유언(will)
+2. 시선(Vision)
+3. 화폐(currency)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2, 화폐(currency)</t>
+          <t>3, 화폐(currency)</t>
         </is>
       </c>
     </row>
@@ -1860,8 +1860,8 @@
         <is>
           <t>貨物
 1. 화물(goods)
-2. 상감(Inlaid)
-3. 사건(event)</t>
+2. 화음(Chord)
+3. 행간</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1874,9 +1874,9 @@
       <c r="A97" t="inlineStr">
         <is>
           <t>正義
-1. 도주(escape)
+1. 안정(Stability)
 2. 정의(justice)
-3. 권세(Power)</t>
+3. 길조</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1890,8 +1890,8 @@
         <is>
           <t>正直
 1. 정직(honest)
-2. 선거(election)
-3. 포기(abandon)</t>
+2. 언약(Appointment)
+3. 선택(choose)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1904,14 +1904,14 @@
       <c r="A99" t="inlineStr">
         <is>
           <t>政治
-1. 훼손(damage)
-2. 정치(politics)
-3. 길조</t>
+1. 약간(Slightly)
+2. 투기(Dumping)
+3. 정치(politics)</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2, 정치(politics)</t>
+          <t>3, 정치(politics)</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       <c r="A100" t="inlineStr">
         <is>
           <t>政府
-1. 맹방(Allies)
-2. 남용(Abuse)
-3. 정부(government)</t>
+1. 첩경
+2. 정부(government)
+3. 세무(Tax)</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>3, 정부(government)</t>
+          <t>2, 정부(government)</t>
         </is>
       </c>
     </row>
@@ -1934,14 +1934,14 @@
       <c r="A101" t="inlineStr">
         <is>
           <t>政派
-1. 정파
-2. 행간
-3. 견습(Appraise)</t>
+1. 유산(heritage)
+2. 간만(Full)
+3. 정파</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1, 정파</t>
+          <t>3, 정파</t>
         </is>
       </c>
     </row>
@@ -1949,14 +1949,14 @@
       <c r="A102" t="inlineStr">
         <is>
           <t>善政
-1. 선정
-2. 화물(goods)
-3. 맹방(Allies)</t>
+1. 포기(abandon)
+2. 선정
+3. 유실(Lose)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1, 선정</t>
+          <t>2, 선정</t>
         </is>
       </c>
     </row>
@@ -1964,14 +1964,14 @@
       <c r="A103" t="inlineStr">
         <is>
           <t>斷定
-1. 안정(Stability)
-2. 근성(guts)
-3. 단정(Determine)</t>
+1. 학문(knowledge)
+2. 단정(Determine)
+3. 야박(Scorpion)</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>3, 단정(Determine)</t>
+          <t>2, 단정(Determine)</t>
         </is>
       </c>
     </row>
@@ -1979,14 +1979,14 @@
       <c r="A104" t="inlineStr">
         <is>
           <t>安定
-1. 단정(Determine)
-2. 화물(goods)
-3. 안정(Stability)</t>
+1. 안정(Stability)
+2. 자태(attitude)
+3. 방역</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>3, 안정(Stability)</t>
+          <t>1, 안정(Stability)</t>
         </is>
       </c>
     </row>
@@ -1994,14 +1994,14 @@
       <c r="A105" t="inlineStr">
         <is>
           <t>規定
-1. 규정(Regulation)
-2. 언론(Remark)
-3. 도발</t>
+1. 견문(knowledge)
+2. 노선(route)
+3. 규정(Regulation)</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1, 규정(Regulation)</t>
+          <t>3, 규정(Regulation)</t>
         </is>
       </c>
     </row>
@@ -2009,8 +2009,8 @@
       <c r="A106" t="inlineStr">
         <is>
           <t>規定
-1. 묵인(default)
-2. 도주(escape)
+1. 선택(choose)
+2. 남용(Abuse)
 3. 규정(Regulation)</t>
         </is>
       </c>
@@ -2024,14 +2024,14 @@
       <c r="A107" t="inlineStr">
         <is>
           <t>構造
-1. 구조(structure)
-2. 격언(motto)
-3. 유리(favorable)</t>
+1. 망조(Omen)
+2. 도주(escape)
+3. 구조(structure)</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1, 구조(structure)</t>
+          <t>3, 구조(structure)</t>
         </is>
       </c>
     </row>
@@ -2039,14 +2039,14 @@
       <c r="A108" t="inlineStr">
         <is>
           <t>充分
-1. 안정(Stability)
-2. 매목
-3. 충분(full)</t>
+1. 충분(full)
+2. 화합(Harmony)
+3. 경위</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>3, 충분(full)</t>
+          <t>1, 충분(full)</t>
         </is>
       </c>
     </row>
@@ -2054,9 +2054,9 @@
       <c r="A109" t="inlineStr">
         <is>
           <t>現象
-1. 서약(Vow)
+1. 유기(Abandon)
 2. 현상(Phenomenon)
-3. 도망(escape)</t>
+3. 화두(Words)</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2069,14 +2069,14 @@
       <c r="A110" t="inlineStr">
         <is>
           <t>造作
-1. 구조(structure)
-2. 통화(Calling)
-3. 조작(Construction)</t>
+1. 화음(Chord)
+2. 조작(Construction)
+3. 자세(carefulness)</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>3, 조작(Construction)</t>
+          <t>2, 조작(Construction)</t>
         </is>
       </c>
     </row>
@@ -2084,8 +2084,8 @@
       <c r="A111" t="inlineStr">
         <is>
           <t>發覺
-1. 행간
-2. 유리(favorable)
+1. 전선(Front)
+2. 정부(government)
 3. 발각(find)</t>
         </is>
       </c>
@@ -2100,8 +2100,8 @@
         <is>
           <t>濫用
 1. 남용(Abuse)
-2. 경로(Passage)
-3. 견습(Appraise)</t>
+2. 경위
+3. 상감(Inlaid)</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2114,14 +2114,14 @@
       <c r="A113" t="inlineStr">
         <is>
           <t>事件
-1. 사건(event)
-2. 도피(escape)
-3. 시선(Vision)</t>
+1. 화음(Chord)
+2. 사건(event)
+3. 재화(Money)</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1, 사건(event)</t>
+          <t>2, 사건(event)</t>
         </is>
       </c>
     </row>
@@ -2129,14 +2129,14 @@
       <c r="A114" t="inlineStr">
         <is>
           <t>遺憾
-1. 근성(guts)
-2. 유감(Pity)
-3. 선택(choose)</t>
+1. 급여(Give)
+2. 침묵(silence)
+3. 유감(Pity)</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2, 유감(Pity)</t>
+          <t>3, 유감(Pity)</t>
         </is>
       </c>
     </row>
@@ -2144,14 +2144,14 @@
       <c r="A115" t="inlineStr">
         <is>
           <t>吉兆
-1. 화합(Harmony)
-2. 길조
-3. 학문(knowledge)</t>
+1. 길조
+2. 화물(goods)
+3. 유기(Abandon)</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2, 길조</t>
+          <t>1, 길조</t>
         </is>
       </c>
     </row>
@@ -2159,14 +2159,14 @@
       <c r="A116" t="inlineStr">
         <is>
           <t>凶兆
-1. 간척(Reclamation)
-2. 곡절(tortuous)
-3. 흉조(Fierce)</t>
+1. 활로(Live)
+2. 흉조(Fierce)
+3. 단서(Ductive)</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>3, 흉조(Fierce)</t>
+          <t>2, 흉조(Fierce)</t>
         </is>
       </c>
     </row>
@@ -2174,14 +2174,14 @@
       <c r="A117" t="inlineStr">
         <is>
           <t>亡兆
-1. 경제(economy)
-2. 내과
-3. 망조(Omen)</t>
+1. 학문(knowledge)
+2. 망조(Omen)
+3. 화제(topic)</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>3, 망조(Omen)</t>
+          <t>2, 망조(Omen)</t>
         </is>
       </c>
     </row>
@@ -2190,8 +2190,8 @@
         <is>
           <t>挑發
 1. 도발
-2. 선수(player)
-3. 혈세</t>
+2. 견문(knowledge)
+3. 곡절(tortuous)</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2205,8 +2205,8 @@
         <is>
           <t>挑戰
 1. 도전(challenge)
-2. 투고(Posting)
-3. 참석</t>
+2. 통화(currency)
+3. 간여</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2219,14 +2219,14 @@
       <c r="A120" t="inlineStr">
         <is>
           <t>逃亡
-1. 비탄(grief)
-2. 도망(escape)
-3. 흉조(Fierce)</t>
+1. 도망(escape)
+2. 간발(Interim)
+3. 근성(guts)</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2, 도망(escape)</t>
+          <t>1, 도망(escape)</t>
         </is>
       </c>
     </row>
@@ -2234,9 +2234,9 @@
       <c r="A121" t="inlineStr">
         <is>
           <t>逃走
-1. 간섭
+1. 간척(Reclamation)
 2. 도주(escape)
-3. 근절(eradication)</t>
+3. 강도(strength)</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2249,8 +2249,8 @@
       <c r="A122" t="inlineStr">
         <is>
           <t>逃避
-1. 공동(common)
-2. 혈세
+1. 부활(Revival)
+2. 활력(vitality)
 3. 도피(escape)</t>
         </is>
       </c>
@@ -2264,14 +2264,14 @@
       <c r="A123" t="inlineStr">
         <is>
           <t>回避
-1. 언론(Remark)
-2. 회피(Avoidance)
-3. 참석</t>
+1. 회피(Avoidance)
+2. 화폐(currency)
+3. 간호(Nurse)</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2, 회피(Avoidance)</t>
+          <t>1, 회피(Avoidance)</t>
         </is>
       </c>
     </row>
@@ -2279,14 +2279,14 @@
       <c r="A124" t="inlineStr">
         <is>
           <t>支持
-1. 지지(support)
-2. 보판(Supplement)
-3. 통화(Calling)</t>
+1. 화두(Words)
+2. 통제(control)
+3. 지지(support)</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1, 지지(support)</t>
+          <t>3, 지지(support)</t>
         </is>
       </c>
     </row>
@@ -2294,14 +2294,14 @@
       <c r="A125" t="inlineStr">
         <is>
           <t>支配
-1. 안정(Stability)
-2. 첩경
-3. 지배(Rule)</t>
+1. 화두(Words)
+2. 지배(Rule)
+3. 정파</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>3, 지배(Rule)</t>
+          <t>2, 지배(Rule)</t>
         </is>
       </c>
     </row>
@@ -2309,14 +2309,14 @@
       <c r="A126" t="inlineStr">
         <is>
           <t>支給
-1. 지급(provision)
-2. 화물(goods)
-3. 한문(Chinese)</t>
+1. 화두(Words)
+2. 지급(provision)
+3. 정파</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1, 지급(provision)</t>
+          <t>2, 지급(provision)</t>
         </is>
       </c>
     </row>
@@ -2324,14 +2324,14 @@
       <c r="A127" t="inlineStr">
         <is>
           <t>給與
-1. 급여(Give)
-2. 사건(event)
-3. 도피(escape)</t>
+1. 참견(See)
+2. 급여(Give)
+3. 현실(Reality)</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1, 급여(Give)</t>
+          <t>2, 급여(Give)</t>
         </is>
       </c>
     </row>
@@ -2339,8 +2339,8 @@
       <c r="A128" t="inlineStr">
         <is>
           <t>沈默
-1. 동맹(alliance)
-2. 언약(Appointment)
+1. 보판(Supplement)
+2. 망조(Omen)
 3. 침묵(silence)</t>
         </is>
       </c>
@@ -2354,8 +2354,8 @@
       <c r="A129" t="inlineStr">
         <is>
           <t>默認
-1. 맹세(Oath)
-2. 지지(support)
+1. 괴한(Blame)
+2. 근절(eradication)
 3. 묵인(default)</t>
         </is>
       </c>
@@ -2369,14 +2369,14 @@
       <c r="A130" t="inlineStr">
         <is>
           <t>默殺
-1. 묵살(Kill)
-2. 서언(oath)
-3. 견문(knowledge)</t>
+1. 강도(strength)
+2. 묵살(Kill)
+3. 정직(honest)</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1, 묵살(Kill)</t>
+          <t>2, 묵살(Kill)</t>
         </is>
       </c>
     </row>
@@ -2384,8 +2384,8 @@
       <c r="A131" t="inlineStr">
         <is>
           <t>默念
-1. 귀중(You)
-2. 도피(escape)
+1. 포기(abandon)
+2. 세금(Tax)
 3. 묵념(Silent)</t>
         </is>
       </c>
@@ -2399,14 +2399,14 @@
       <c r="A132" t="inlineStr">
         <is>
           <t>同盟
-1. 현상(Phenomenon)
-2. 동맹(alliance)
-3. 참여(participate)</t>
+1. 동맹(alliance)
+2. 서언(oath)
+3. 자세(carefulness)</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2, 동맹(alliance)</t>
+          <t>1, 동맹(alliance)</t>
         </is>
       </c>
     </row>
@@ -2414,14 +2414,14 @@
       <c r="A133" t="inlineStr">
         <is>
           <t>盟誓
-1. 맹세(Oath)
-2. 전선(Front)
-3. 서약(Vow)</t>
+1. 선택(choose)
+2. 활력(vitality)
+3. 맹세(Oath)</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1, 맹세(Oath)</t>
+          <t>3, 맹세(Oath)</t>
         </is>
       </c>
     </row>
@@ -2429,14 +2429,14 @@
       <c r="A134" t="inlineStr">
         <is>
           <t>盟邦
-1. 맹방(Allies)
-2. 유언(will)
-3. 공동(common)</t>
+1. 화제(topic)
+2. 맹방(Allies)
+3. 유실(Lose)</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1, 맹방(Allies)</t>
+          <t>2, 맹방(Allies)</t>
         </is>
       </c>
     </row>
@@ -2444,14 +2444,14 @@
       <c r="A135" t="inlineStr">
         <is>
           <t>誓約
-1. 서약(Vow)
-2. 도발
-3. 세무(Tax)</t>
+1. 전선(Front)
+2. 행간
+3. 서약(Vow)</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1, 서약(Vow)</t>
+          <t>3, 서약(Vow)</t>
         </is>
       </c>
     </row>
@@ -2459,14 +2459,149 @@
       <c r="A136" t="inlineStr">
         <is>
           <t>誓言
-1. 참여(participate)
-2. 유산(heritage)
+1. 노선(route)
+2. 상감(Inlaid)
 3. 서언(oath)</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>3, 서언(oath)</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>放恣
+1. 방자
+2. 곡절(tortuous)
+3. 침체(Depression)</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1, 방자</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>仔細
+1. 맹세(Oath)
+2. 화해(reconciliation)
+3. 자세(carefulness)</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>3, 자세(carefulness)</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>姿態
+1. 자태(attitude)
+2. 세력(power)
+3. 지지(support)</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1, 자태(attitude)</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>間髮
+1. 간발(Interim)
+2. 혈세
+3. 약간(Slightly)</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1, 간발(Interim)</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>比肩
+1. 비견(Shoulder)
+2. 간여
+3. 괴한(Blame)</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1, 비견(Shoulder)</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>沈滯
+1. 지급(provision)
+2. 침체(Depression)
+3. 방자</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2, 침체(Depression)</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>萎縮
+1. 위축(Atrophy)
+2. 경제(economy)
+3. 기반(basis)</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1, 위축(Atrophy)</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>且置
+1. 차치(Put)
+2. 참견(See)
+3. 서막(prelude)</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1, 차치(Put)</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>防疫
+1. 정파
+2. 방역
+3. 동맹(alliance)</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2, 방역</t>
         </is>
       </c>
     </row>
